--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H2">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I2">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J2">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N2">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q2">
-        <v>7.339595844039667</v>
+        <v>5.175517145368111</v>
       </c>
       <c r="R2">
-        <v>66.056362596357</v>
+        <v>46.57965430831299</v>
       </c>
       <c r="S2">
-        <v>0.04795242354344367</v>
+        <v>0.03186340238218604</v>
       </c>
       <c r="T2">
-        <v>0.04795242354344367</v>
+        <v>0.03186340238218605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H3">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I3">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J3">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q3">
         <v>8.410793929035888</v>
       </c>
       <c r="R3">
-        <v>75.69714536132301</v>
+        <v>75.69714536132298</v>
       </c>
       <c r="S3">
-        <v>0.05495097569292999</v>
+        <v>0.05178159086080212</v>
       </c>
       <c r="T3">
-        <v>0.05495097569292998</v>
+        <v>0.05178159086080211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H4">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I4">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J4">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N4">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q4">
-        <v>2.745498131110667</v>
+        <v>4.108979657546778</v>
       </c>
       <c r="R4">
-        <v>24.709483179996</v>
+        <v>36.980816917921</v>
       </c>
       <c r="S4">
-        <v>0.01793740309661119</v>
+        <v>0.02529719611223852</v>
       </c>
       <c r="T4">
-        <v>0.01793740309661119</v>
+        <v>0.02529719611223852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H5">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I5">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J5">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N5">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q5">
-        <v>53.39813265775333</v>
+        <v>42.33148795522111</v>
       </c>
       <c r="R5">
-        <v>480.58319391978</v>
+        <v>380.9833915969899</v>
       </c>
       <c r="S5">
-        <v>0.3488706909812977</v>
+        <v>0.2606165135325692</v>
       </c>
       <c r="T5">
-        <v>0.3488706909812976</v>
+        <v>0.2606165135325692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H6">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I6">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J6">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.486111</v>
       </c>
       <c r="O6">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P6">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q6">
-        <v>61.19147423415777</v>
+        <v>68.79340013769888</v>
       </c>
       <c r="R6">
-        <v>550.72326810742</v>
+        <v>619.1406012392899</v>
       </c>
       <c r="S6">
-        <v>0.3997876112084457</v>
+        <v>0.4235309686468687</v>
       </c>
       <c r="T6">
-        <v>0.3997876112084457</v>
+        <v>0.4235309686468686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H7">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I7">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J7">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N7">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O7">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P7">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q7">
-        <v>19.97446133709333</v>
+        <v>33.60808552964778</v>
       </c>
       <c r="R7">
-        <v>179.77015203384</v>
+        <v>302.47276976683</v>
       </c>
       <c r="S7">
-        <v>0.1305008954772719</v>
+        <v>0.2069103284653355</v>
       </c>
       <c r="T7">
-        <v>0.1305008954772719</v>
+        <v>0.2069103284653355</v>
       </c>
     </row>
   </sheetData>
